--- a/trunk/resultados/fitness_variado.xlsx
+++ b/trunk/resultados/fitness_variado.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -102,6 +105,27 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="14">
+          <cell r="K14">
+            <v>1.1945821484318764</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,22 +413,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="12" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:16">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -414,8 +440,9 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:12">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +470,11 @@
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:12">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3">
         <v>16.7057</v>
       </c>
@@ -473,7 +503,7 @@
         <v>15.7096</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:16">
       <c r="B4">
         <v>16.808399999999999</v>
       </c>
@@ -502,7 +532,7 @@
         <v>15.6919</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:16">
       <c r="B5">
         <v>17.0792</v>
       </c>
@@ -531,7 +561,7 @@
         <v>15.8139</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:16">
       <c r="B6">
         <v>17.191800000000001</v>
       </c>
@@ -560,7 +590,7 @@
         <v>15.8864</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:16">
       <c r="B7">
         <v>16.901900000000001</v>
       </c>
@@ -589,7 +619,7 @@
         <v>15.8002</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:16">
       <c r="B8">
         <v>17.1752</v>
       </c>
@@ -618,7 +648,7 @@
         <v>15.941800000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:16">
       <c r="B9">
         <v>17.204000000000001</v>
       </c>
@@ -647,7 +677,7 @@
         <v>15.888199999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:16">
       <c r="B10">
         <v>17.0425</v>
       </c>
@@ -676,7 +706,7 @@
         <v>15.9558</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:16">
       <c r="B11">
         <v>17.2425</v>
       </c>
@@ -705,7 +735,7 @@
         <v>15.959099999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:16">
       <c r="B12">
         <v>17.452100000000002</v>
       </c>
@@ -734,7 +764,7 @@
         <v>16.0289</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:16">
       <c r="B13">
         <v>17.407399999999999</v>
       </c>
@@ -763,7 +793,7 @@
         <v>16.0517</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:16">
       <c r="B14">
         <v>17.513400000000001</v>
       </c>
@@ -792,7 +822,7 @@
         <v>16.108799999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:16">
       <c r="B15">
         <v>17.3643</v>
       </c>
@@ -811,8 +841,17 @@
       <c r="H15">
         <v>14.004099999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="J15">
+        <v>16.775500000000001</v>
+      </c>
+      <c r="K15">
+        <v>33.641199999999998</v>
+      </c>
+      <c r="L15">
+        <v>15.8786</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16">
         <v>17.572600000000001</v>
       </c>
@@ -830,6 +869,15 @@
       </c>
       <c r="H16">
         <v>14.0138</v>
+      </c>
+      <c r="J16">
+        <v>16.9435</v>
+      </c>
+      <c r="K16">
+        <v>33.704599999999999</v>
+      </c>
+      <c r="L16">
+        <v>15.9312</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -851,6 +899,15 @@
       <c r="H17">
         <v>14.0824</v>
       </c>
+      <c r="J17">
+        <v>16.724</v>
+      </c>
+      <c r="K17">
+        <v>33.646500000000003</v>
+      </c>
+      <c r="L17">
+        <v>15.8721</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18">
@@ -871,6 +928,15 @@
       <c r="H18">
         <v>14.075699999999999</v>
       </c>
+      <c r="J18">
+        <v>17.0228</v>
+      </c>
+      <c r="K18">
+        <v>33.688099999999999</v>
+      </c>
+      <c r="L18">
+        <v>15.9381</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19">
@@ -891,6 +957,15 @@
       <c r="H19">
         <v>14.047499999999999</v>
       </c>
+      <c r="J19">
+        <v>17.1938</v>
+      </c>
+      <c r="K19">
+        <v>33.6248</v>
+      </c>
+      <c r="L19">
+        <v>15.9419</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20">
@@ -911,6 +986,15 @@
       <c r="H20">
         <v>14.121700000000001</v>
       </c>
+      <c r="J20">
+        <v>17.314599999999999</v>
+      </c>
+      <c r="K20">
+        <v>33.763800000000003</v>
+      </c>
+      <c r="L20">
+        <v>16.016100000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21">
@@ -931,6 +1015,15 @@
       <c r="H21">
         <v>14.1069</v>
       </c>
+      <c r="J21">
+        <v>16.116499999999998</v>
+      </c>
+      <c r="K21">
+        <v>34.332000000000001</v>
+      </c>
+      <c r="L21">
+        <v>16.037400000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22">
@@ -951,6 +1044,15 @@
       <c r="H22">
         <v>14.1624</v>
       </c>
+      <c r="J22">
+        <v>16.423400000000001</v>
+      </c>
+      <c r="K22">
+        <v>34.3538</v>
+      </c>
+      <c r="L22">
+        <v>16.097100000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="B23">
@@ -972,14 +1074,6 @@
         <v>14.198600000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="B24">
-        <v>17.8551</v>
-      </c>
-      <c r="C24">
-        <v>33.402900000000002</v>
-      </c>
-    </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>3</v>
@@ -1010,15 +1104,15 @@
       </c>
       <c r="J25">
         <f>AVERAGE(J3:J23)</f>
-        <v>16.651399999999999</v>
+        <v>16.716545</v>
       </c>
       <c r="K25">
         <f>AVERAGE(K3:K23)</f>
-        <v>33.757199999999997</v>
+        <v>33.792060000000006</v>
       </c>
       <c r="L25">
         <f>AVERAGE(L3:L23)</f>
-        <v>15.903025</v>
+        <v>15.927439999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1046,20 +1140,20 @@
         <v>0.2922773492845625</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
-        <v>0.15291369430058072</v>
+        <f>[1]Hoja2!$K$14</f>
+        <v>1.1945821484318764</v>
       </c>
       <c r="J26">
         <f>STDEV(J3:J23)</f>
-        <v>0.44192522814694174</v>
+        <v>0.42174234523372722</v>
       </c>
       <c r="K26">
         <f t="shared" ref="K26:L26" si="2">STDEV(K3:K23)</f>
-        <v>0.32090797038171953</v>
+        <v>0.31167195709880052</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>0.13098391382872573</v>
+        <v>0.11479931872161693</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/resultados/fitness_variado.xlsx
+++ b/trunk/resultados/fitness_variado.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja1 (3)" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Bus Avg speed</t>
   </si>
@@ -44,12 +44,18 @@
   <si>
     <t>30% bus, 70%autos</t>
   </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +74,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,10 +114,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1136,7 +1161,7 @@
         <v>0.32756037989386039</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" ref="G26:H26" si="1">STDEV(G3:G23)</f>
+        <f t="shared" ref="G26" si="1">STDEV(G3:G23)</f>
         <v>0.2922773492845625</v>
       </c>
       <c r="H26">
@@ -1164,24 +1189,1026 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="12" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="42" customHeight="1">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="F4" s="6">
+        <v>15.3246</v>
+      </c>
+      <c r="G4" s="6">
+        <v>32.740400000000001</v>
+      </c>
+      <c r="H4" s="6">
+        <v>13.3514</v>
+      </c>
+      <c r="J4">
+        <v>15.0052</v>
+      </c>
+      <c r="K4">
+        <v>32.954099999999997</v>
+      </c>
+      <c r="L4">
+        <v>15.3163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5">
+        <v>16.774999999999999</v>
+      </c>
+      <c r="C5">
+        <v>32.329700000000003</v>
+      </c>
+      <c r="D5">
+        <v>13.6402</v>
+      </c>
+      <c r="F5" s="6">
+        <v>16.464600000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>32.781799999999997</v>
+      </c>
+      <c r="H5" s="6">
+        <v>13.679600000000001</v>
+      </c>
+      <c r="J5">
+        <v>15.640499999999999</v>
+      </c>
+      <c r="K5">
+        <v>33.201799999999999</v>
+      </c>
+      <c r="L5">
+        <v>15.518599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="F6" s="6">
+        <v>16.4041</v>
+      </c>
+      <c r="G6" s="6">
+        <v>32.906399999999998</v>
+      </c>
+      <c r="H6" s="6">
+        <v>13.6974</v>
+      </c>
+      <c r="J6">
+        <v>15.8226</v>
+      </c>
+      <c r="K6">
+        <v>33.462000000000003</v>
+      </c>
+      <c r="L6">
+        <v>15.6501</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7">
+        <v>16.888300000000001</v>
+      </c>
+      <c r="C7">
+        <v>32.8551</v>
+      </c>
+      <c r="D7">
+        <v>13.817600000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>16.326499999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>32.942999999999998</v>
+      </c>
+      <c r="H7" s="6">
+        <v>13.686</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8">
+        <v>16.489699999999999</v>
+      </c>
+      <c r="C8">
+        <v>32.9253</v>
+      </c>
+      <c r="D8">
+        <v>13.7264</v>
+      </c>
+      <c r="F8" s="6">
+        <v>16.477900000000002</v>
+      </c>
+      <c r="G8" s="6">
+        <v>32.919899999999998</v>
+      </c>
+      <c r="H8" s="6">
+        <v>13.7216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9">
+        <v>16.6889</v>
+      </c>
+      <c r="C9">
+        <v>32.962800000000001</v>
+      </c>
+      <c r="D9">
+        <v>13.7921</v>
+      </c>
+      <c r="F9" s="6">
+        <v>16.502600000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>32.844900000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>13.707599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10">
+        <v>16.7775</v>
+      </c>
+      <c r="C10">
+        <v>32.889200000000002</v>
+      </c>
+      <c r="D10">
+        <v>13.7963</v>
+      </c>
+      <c r="F10" s="6">
+        <v>16.290600000000001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>32.857799999999997</v>
+      </c>
+      <c r="H10" s="6">
+        <v>13.6523</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="F11" s="6">
+        <v>15.8508</v>
+      </c>
+      <c r="G11" s="6">
+        <v>33.154699999999998</v>
+      </c>
+      <c r="H11" s="6">
+        <v>13.6126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="F12" s="6">
+        <v>16.285399999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>33.053699999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>13.705299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="F13" s="6">
+        <v>16.462499999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <v>33.140300000000003</v>
+      </c>
+      <c r="H13" s="6">
+        <v>13.778600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="F14" s="6">
+        <v>16.538900000000002</v>
+      </c>
+      <c r="G14" s="6">
+        <v>32.987499999999997</v>
+      </c>
+      <c r="H14" s="6">
+        <v>13.757300000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="F15" s="6">
+        <v>16.518599999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>33.151899999999998</v>
+      </c>
+      <c r="H15" s="6">
+        <v>13.7974</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="F16" s="6">
+        <v>16.4147</v>
+      </c>
+      <c r="G16" s="6">
+        <v>32.9497</v>
+      </c>
+      <c r="H16" s="6">
+        <v>13.712300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="F17" s="6">
+        <v>15.559799999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <v>33.175400000000003</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13.5375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="F18" s="6">
+        <v>16.836500000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>33.314399999999999</v>
+      </c>
+      <c r="H18" s="6">
+        <v>13.9308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="F19" s="6">
+        <v>16.043700000000001</v>
+      </c>
+      <c r="G19" s="6">
+        <v>32.255299999999998</v>
+      </c>
+      <c r="H19" s="6">
+        <v>13.416399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="F20" s="6">
+        <v>16.623100000000001</v>
+      </c>
+      <c r="G20" s="6">
+        <v>32.496299999999998</v>
+      </c>
+      <c r="H20" s="6">
+        <v>13.644299999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="F21" s="6">
+        <v>17.168199999999999</v>
+      </c>
+      <c r="G21" s="6">
+        <v>33.0959</v>
+      </c>
+      <c r="H21" s="6">
+        <v>13.962199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="F22" s="6">
+        <v>17.2059</v>
+      </c>
+      <c r="G22" s="6">
+        <v>32.991900000000001</v>
+      </c>
+      <c r="H22" s="6">
+        <v>13.9438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="F23" s="6">
+        <v>17.72</v>
+      </c>
+      <c r="G23" s="6">
+        <v>32.501100000000001</v>
+      </c>
+      <c r="H23" s="6">
+        <v>13.9503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="F24" s="6">
+        <v>17.873999999999999</v>
+      </c>
+      <c r="G24" s="6">
+        <v>32.692300000000003</v>
+      </c>
+      <c r="H24" s="6">
+        <v>14.046200000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B4:B24)</f>
+        <v>16.723880000000001</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C4:C24)</f>
+        <v>32.792420000000007</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(D4:D24)</f>
+        <v>13.754519999999999</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(F4:F24)</f>
+        <v>16.518714285714292</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(G4:G24)</f>
+        <v>32.9026</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(H4:H24)</f>
+        <v>13.728138095238096</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(J4:J24)</f>
+        <v>15.489433333333332</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(K4:K24)</f>
+        <v>33.205966666666669</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(L4:L24)</f>
+        <v>15.494999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <f>STDEV(B4:B24)</f>
+        <v>0.14881714282962538</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:D27" si="0">STDEV(C4:C24)</f>
+        <v>0.26176868987660229</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>7.2451204268804359E-2</v>
+      </c>
+      <c r="F27">
+        <f>STDEV(F4:F24)</f>
+        <v>0.61150613838743018</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ref="G27:H27" si="1">STDEV(G4:G24)</f>
+        <v>0.25898757692193169</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17449613026141753</v>
+      </c>
+      <c r="J27">
+        <f>STDEV(J4:J24)</f>
+        <v>0.42912881904308675</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:L27" si="2">STDEV(K4:K24)</f>
+        <v>0.25397563531358525</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.1681467513811887</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="12" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" s="6" customFormat="1" ht="42" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="F4" s="7">
+        <v>17.505299999999998</v>
+      </c>
+      <c r="G4" s="7">
+        <v>33.850900000000003</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14.265599999999999</v>
+      </c>
+      <c r="J4">
+        <v>17.349499999999999</v>
+      </c>
+      <c r="K4">
+        <v>34.5989</v>
+      </c>
+      <c r="L4">
+        <v>16.346699999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5">
+        <v>18.081</v>
+      </c>
+      <c r="C5">
+        <v>34.016599999999997</v>
+      </c>
+      <c r="D5">
+        <v>12.700900000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>17.621300000000002</v>
+      </c>
+      <c r="G5" s="7">
+        <v>34.042099999999998</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14.350899999999999</v>
+      </c>
+      <c r="J5">
+        <v>17.559899999999999</v>
+      </c>
+      <c r="K5">
+        <v>34.719000000000001</v>
+      </c>
+      <c r="L5">
+        <v>16.4285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="F6" s="7">
+        <v>17.8736</v>
+      </c>
+      <c r="G6" s="7">
+        <v>33.8444</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14.366099999999999</v>
+      </c>
+      <c r="J6">
+        <v>17.329599999999999</v>
+      </c>
+      <c r="K6">
+        <v>34.423200000000001</v>
+      </c>
+      <c r="L6">
+        <v>16.275099999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="F7" s="7">
+        <v>17.729500000000002</v>
+      </c>
+      <c r="G7" s="7">
+        <v>34.0246</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14.376099999999999</v>
+      </c>
+      <c r="J7">
+        <v>17.154599999999999</v>
+      </c>
+      <c r="K7">
+        <v>34.547199999999997</v>
+      </c>
+      <c r="L7">
+        <v>16.2941</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8">
+        <v>17.737100000000002</v>
+      </c>
+      <c r="C8">
+        <v>33.994500000000002</v>
+      </c>
+      <c r="D8">
+        <v>12.563499999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>17.976099999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>34.113999999999997</v>
+      </c>
+      <c r="H8" s="7">
+        <v>14.4695</v>
+      </c>
+      <c r="J8">
+        <v>17.510899999999999</v>
+      </c>
+      <c r="K8">
+        <v>34.529600000000002</v>
+      </c>
+      <c r="L8">
+        <v>16.346699999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9">
+        <v>17.718399999999999</v>
+      </c>
+      <c r="C9">
+        <v>33.915500000000002</v>
+      </c>
+      <c r="D9">
+        <v>12.543100000000001</v>
+      </c>
+      <c r="F9" s="7">
+        <v>17.959900000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>33.931699999999999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>14.414300000000001</v>
+      </c>
+      <c r="J9">
+        <v>17.685199999999998</v>
+      </c>
+      <c r="K9">
+        <v>34.570599999999999</v>
+      </c>
+      <c r="L9">
+        <v>16.3917</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="F10" s="7">
+        <v>18.033999999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>34.0822</v>
+      </c>
+      <c r="H10" s="7">
+        <v>14.476699999999999</v>
+      </c>
+      <c r="J10">
+        <v>17.4206</v>
+      </c>
+      <c r="K10">
+        <v>34.778599999999997</v>
+      </c>
+      <c r="L10">
+        <v>16.4285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="F11" s="7">
+        <v>17.9086</v>
+      </c>
+      <c r="G11" s="7">
+        <v>34.0244</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14.425800000000001</v>
+      </c>
+      <c r="J11">
+        <v>17.787800000000001</v>
+      </c>
+      <c r="K11">
+        <v>34.868200000000002</v>
+      </c>
+      <c r="L11">
+        <v>16.5245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="F12" s="7">
+        <v>18.004200000000001</v>
+      </c>
+      <c r="G12" s="7">
+        <v>34.014800000000001</v>
+      </c>
+      <c r="H12" s="7">
+        <v>14.4497</v>
+      </c>
+      <c r="J12">
+        <v>17.960899999999999</v>
+      </c>
+      <c r="K12">
+        <v>34.560699999999997</v>
+      </c>
+      <c r="L12">
+        <v>16.433700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13">
+        <v>17.8598</v>
+      </c>
+      <c r="C13">
+        <v>33.997100000000003</v>
+      </c>
+      <c r="D13">
+        <v>12.611700000000001</v>
+      </c>
+      <c r="F13" s="7">
+        <v>18.1069</v>
+      </c>
+      <c r="G13" s="7">
+        <v>34.200400000000002</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14.5298</v>
+      </c>
+      <c r="J13">
+        <v>17.716699999999999</v>
+      </c>
+      <c r="K13">
+        <v>34.8703</v>
+      </c>
+      <c r="L13">
+        <v>16.513400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14">
+        <v>17.781400000000001</v>
+      </c>
+      <c r="C14">
+        <v>33.955199999999998</v>
+      </c>
+      <c r="D14">
+        <v>12.574199999999999</v>
+      </c>
+      <c r="F14" s="7">
+        <v>17.891100000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <v>34.065399999999997</v>
+      </c>
+      <c r="H14" s="7">
+        <v>14.432399999999999</v>
+      </c>
+      <c r="J14">
+        <v>17.671800000000001</v>
+      </c>
+      <c r="K14">
+        <v>34.995699999999999</v>
+      </c>
+      <c r="L14">
+        <v>16.5547</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15">
+        <v>18.014299999999999</v>
+      </c>
+      <c r="C15">
+        <v>34.171799999999998</v>
+      </c>
+      <c r="D15">
+        <v>12.700900000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <v>18.087199999999999</v>
+      </c>
+      <c r="G15" s="7">
+        <v>34.244399999999999</v>
+      </c>
+      <c r="H15" s="7">
+        <v>14.5366</v>
+      </c>
+      <c r="J15">
+        <v>17.790900000000001</v>
+      </c>
+      <c r="K15">
+        <v>35.170900000000003</v>
+      </c>
+      <c r="L15">
+        <v>16.642700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16">
+        <v>18.354600000000001</v>
+      </c>
+      <c r="C16">
+        <v>34.417200000000001</v>
+      </c>
+      <c r="D16">
+        <v>12.8741</v>
+      </c>
+      <c r="F16" s="7">
+        <v>17.775400000000001</v>
+      </c>
+      <c r="G16" s="7">
+        <v>34.0274</v>
+      </c>
+      <c r="H16" s="7">
+        <v>14.389699999999999</v>
+      </c>
+      <c r="J16">
+        <v>17.264800000000001</v>
+      </c>
+      <c r="K16">
+        <v>34.611600000000003</v>
+      </c>
+      <c r="L16">
+        <v>16.337499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="F17" s="7">
+        <v>18.067399999999999</v>
+      </c>
+      <c r="G17" s="7">
+        <v>34.151699999999998</v>
+      </c>
+      <c r="H17" s="7">
+        <v>14.5053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="F18" s="7">
+        <v>17.911899999999999</v>
+      </c>
+      <c r="G18" s="7">
+        <v>34.801400000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>14.6426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="F19" s="7">
+        <v>17.895800000000001</v>
+      </c>
+      <c r="G19" s="7">
+        <v>34.717199999999998</v>
+      </c>
+      <c r="H19" s="7">
+        <v>14.614699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="F20" s="7">
+        <v>17.941099999999999</v>
+      </c>
+      <c r="G20" s="7">
+        <v>34.540100000000002</v>
+      </c>
+      <c r="H20" s="7">
+        <v>14.578099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="F21" s="7">
+        <v>17.785699999999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>34.888599999999997</v>
+      </c>
+      <c r="H21" s="7">
+        <v>14.6318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="F22" s="7">
+        <v>17.935700000000001</v>
+      </c>
+      <c r="G22" s="7">
+        <v>34.7761</v>
+      </c>
+      <c r="H22" s="7">
+        <v>14.642099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="F23" s="7">
+        <v>17.936699999999998</v>
+      </c>
+      <c r="G23" s="7">
+        <v>34.924199999999999</v>
+      </c>
+      <c r="H23" s="7">
+        <v>14.6836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="F24" s="7">
+        <v>18.431000000000001</v>
+      </c>
+      <c r="G24" s="7">
+        <v>35.170099999999998</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14.889200000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B4:B24)</f>
+        <v>17.935228571428574</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(C4:C24)</f>
+        <v>34.066842857142852</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(D4:D24)</f>
+        <v>12.65262857142857</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(F4:F24)</f>
+        <v>17.92278095238095</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(G4:G24)</f>
+        <v>34.306480952380966</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(H4:H24)</f>
+        <v>14.508123809523811</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(J4:J24)</f>
+        <v>17.554092307692308</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(K4:K24)</f>
+        <v>34.711115384615383</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(L4:L24)</f>
+        <v>16.424446153846151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <f>STDEV(B4:B24)</f>
+        <v>0.23057762766768267</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:D27" si="0">STDEV(C4:C24)</f>
+        <v>0.17404827737482156</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.11653072147567523</v>
+      </c>
+      <c r="F27">
+        <f>STDEV(F4:F24)</f>
+        <v>0.18862281309309559</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" ref="G27:H27" si="1">STDEV(G4:G24)</f>
+        <v>0.40577017955747746</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14269780623658618</v>
+      </c>
+      <c r="J27">
+        <f>STDEV(J4:J24)</f>
+        <v>0.23960622370040208</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:L27" si="2">STDEV(K4:K24)</f>
+        <v>0.21498028532197039</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.10903292022278342</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/resultados/fitness_variado.xlsx
+++ b/trunk/resultados/fitness_variado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="9795" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
   <si>
     <t>Bus Avg speed</t>
   </si>
@@ -49,6 +49,30 @@
   </si>
   <si>
     <t>BAJO</t>
+  </si>
+  <si>
+    <t>70-30</t>
+  </si>
+  <si>
+    <t>50-50</t>
+  </si>
+  <si>
+    <t>30-70</t>
+  </si>
+  <si>
+    <t>var vbp</t>
+  </si>
+  <si>
+    <t>var vpv</t>
+  </si>
+  <si>
+    <t>var fitness</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MEDIO</t>
   </si>
 </sst>
 </file>
@@ -114,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -123,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,17 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="12" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
@@ -1181,6 +1209,256 @@
         <v>0.11479931872161693</v>
       </c>
     </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>17.92278095238095</v>
+      </c>
+      <c r="C38">
+        <v>34.306480952380966</v>
+      </c>
+      <c r="D38">
+        <v>14.508123809523811</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>17.935228571428574</v>
+      </c>
+      <c r="C39">
+        <v>34.066842857142852</v>
+      </c>
+      <c r="D39">
+        <v>12.65262857142857</v>
+      </c>
+      <c r="E39" s="8">
+        <v>6.94513819071705E-4</v>
+      </c>
+      <c r="F39" s="8">
+        <v>-6.9852135394108993E-3</v>
+      </c>
+      <c r="G39" s="8">
+        <v>-0.12789353485370775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>17.554092307692308</v>
+      </c>
+      <c r="C40">
+        <v>34.711115384615383</v>
+      </c>
+      <c r="D40">
+        <v>16.424446153846151</v>
+      </c>
+      <c r="E40" s="8">
+        <v>-2.0570950773108911E-2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1.1794693626433699E-2</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.1320861587260771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="7">
+        <v>16.955138095238095</v>
+      </c>
+      <c r="C42" s="7">
+        <v>33.294990476190478</v>
+      </c>
+      <c r="D42" s="7">
+        <v>13.958376190476192</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="7">
+        <v>17.297547619047617</v>
+      </c>
+      <c r="C43" s="7">
+        <v>33.088719047619051</v>
+      </c>
+      <c r="D43" s="7">
+        <v>12.24160476190476</v>
+      </c>
+      <c r="E43" s="8">
+        <f>(B43-B42)/B42</f>
+        <v>2.0195030077973165E-2</v>
+      </c>
+      <c r="F43" s="8">
+        <f>(C43-C42)/C42</f>
+        <v>-6.195269186784506E-3</v>
+      </c>
+      <c r="G43" s="8">
+        <f>(D43-D42)/D42</f>
+        <v>-0.12299220232671378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="7">
+        <v>16.716545</v>
+      </c>
+      <c r="C44" s="7">
+        <v>33.792060000000006</v>
+      </c>
+      <c r="D44" s="7">
+        <v>15.927439999999999</v>
+      </c>
+      <c r="E44" s="8">
+        <f>(B44-B42)/B42</f>
+        <v>-1.4072023117588421E-2</v>
+      </c>
+      <c r="F44" s="8">
+        <f>(C44-C42)/C42</f>
+        <v>1.492925862720962E-2</v>
+      </c>
+      <c r="G44" s="8">
+        <f>(D44-D42)/D42</f>
+        <v>0.14106682486945005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>16.518714285714292</v>
+      </c>
+      <c r="C46">
+        <v>32.9026</v>
+      </c>
+      <c r="D46">
+        <v>13.728138095238096</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>16.723880000000001</v>
+      </c>
+      <c r="C47">
+        <v>32.792420000000007</v>
+      </c>
+      <c r="D47">
+        <v>13.754519999999999</v>
+      </c>
+      <c r="E47" s="8">
+        <v>1.2420198735632843E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>-3.3486715335563945E-3</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1.9217394652414318E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>15.489433333333332</v>
+      </c>
+      <c r="C48">
+        <v>33.205966666666669</v>
+      </c>
+      <c r="D48">
+        <v>15.494999999999999</v>
+      </c>
+      <c r="E48" s="8">
+        <v>-6.2309991841865212E-2</v>
+      </c>
+      <c r="F48" s="8">
+        <v>9.220142683759612E-3</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0.12870368090009071</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1189,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1640,6 +1918,96 @@
         <v>0.1681467513811887</v>
       </c>
     </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="7">
+        <v>16.518714285714292</v>
+      </c>
+      <c r="C33" s="7">
+        <v>32.9026</v>
+      </c>
+      <c r="D33" s="7">
+        <v>13.728138095238096</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="7">
+        <v>16.723880000000001</v>
+      </c>
+      <c r="C34" s="7">
+        <v>32.792420000000007</v>
+      </c>
+      <c r="D34" s="7">
+        <v>13.754519999999999</v>
+      </c>
+      <c r="E34" s="8">
+        <f>(B34-B33)/B33</f>
+        <v>1.2420198735632843E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <f>(C34-C33)/C33</f>
+        <v>-3.3486715335563945E-3</v>
+      </c>
+      <c r="G34" s="8">
+        <f>(D34-D33)/D33</f>
+        <v>1.9217394652414318E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="7">
+        <v>15.489433333333332</v>
+      </c>
+      <c r="C35" s="7">
+        <v>33.205966666666669</v>
+      </c>
+      <c r="D35" s="7">
+        <v>15.494999999999999</v>
+      </c>
+      <c r="E35" s="8">
+        <f>(B35-B33)/B33</f>
+        <v>-6.2309991841865212E-2</v>
+      </c>
+      <c r="F35" s="8">
+        <f>(C35-C33)/C33</f>
+        <v>9.220142683759612E-3</v>
+      </c>
+      <c r="G35" s="8">
+        <f>(D35-D33)/D33</f>
+        <v>0.12870368090009071</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1648,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2207,6 +2575,92 @@
         <v>0.10903292022278342</v>
       </c>
     </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7">
+        <v>17.92278095238095</v>
+      </c>
+      <c r="C32" s="7">
+        <v>34.306480952380966</v>
+      </c>
+      <c r="D32" s="7">
+        <v>14.508123809523811</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="7">
+        <v>17.935228571428574</v>
+      </c>
+      <c r="C33" s="7">
+        <v>34.066842857142852</v>
+      </c>
+      <c r="D33" s="7">
+        <v>12.65262857142857</v>
+      </c>
+      <c r="E33" s="8">
+        <f>(B33-B32)/B32</f>
+        <v>6.94513819071705E-4</v>
+      </c>
+      <c r="F33" s="8">
+        <f>(C33-C32)/C32</f>
+        <v>-6.9852135394108993E-3</v>
+      </c>
+      <c r="G33" s="8">
+        <f>(D33-D32)/D32</f>
+        <v>-0.12789353485370775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="7">
+        <v>17.554092307692308</v>
+      </c>
+      <c r="C34" s="7">
+        <v>34.711115384615383</v>
+      </c>
+      <c r="D34" s="7">
+        <v>16.424446153846151</v>
+      </c>
+      <c r="E34" s="8">
+        <f>(B34-B32)/B32</f>
+        <v>-2.0570950773108911E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <f>(C34-C32)/C32</f>
+        <v>1.1794693626433699E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <f>(D34-D32)/D32</f>
+        <v>0.1320861587260771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
